--- a/biology/Botanique/Wave_Hill/Wave_Hill.xlsx
+++ b/biology/Botanique/Wave_Hill/Wave_Hill.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Wave Hill est un jardin botanique de la ville de New York aux États-Unis, situé dans l'arrondissement du Bronx. D'une superficie de 11 hectares, Wave Hill se compose de jardins horticoles publics et d’un centre culturel, tous situés sur les pentes surplombant le fleuve Hudson, avec une vue imprenable sur la rivière jusqu’aux New Jersey Palisades. Le domaine comprend deux maisons et un jardin botanique. La partie la plus ancienne de la maison principale, Wave Hill House, date de 1843 ; la maison Glyndor date de 1927 et contient une galerie d’art de plusieurs pièces. Chaque année près de 65 000 personnes visitent le site[1].
+Wave Hill est un jardin botanique de la ville de New York aux États-Unis, situé dans l'arrondissement du Bronx. D'une superficie de 11 hectares, Wave Hill se compose de jardins horticoles publics et d’un centre culturel, tous situés sur les pentes surplombant le fleuve Hudson, avec une vue imprenable sur la rivière jusqu’aux New Jersey Palisades. Le domaine comprend deux maisons et un jardin botanique. La partie la plus ancienne de la maison principale, Wave Hill House, date de 1843 ; la maison Glyndor date de 1927 et contient une galerie d’art de plusieurs pièces. Chaque année près de 65 000 personnes visitent le site.
 Le parc de Riverdale est attenant à Wave Hill, parc reconnu pour ses promenades boisées le long de l'Hudson.  
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Wave Hill a été construit en 1843 par le juriste William Lewis Morris.
 De 1866 à 1903, la propriété a appartenu à William Henry Appleton, qui agrandit la maison et fit construire le premier jardin et les serres.
@@ -547,7 +561,9 @@
           <t>Présent</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wave Hill est constitué de 4 Maisons historiques et de 5 serres.
 Les jardins de Wave Hill contiennent :
@@ -556,7 +572,7 @@
 Le Pergola (avec une vue extraordinaire sur le fleuve Hudson)
 Le jardin Sauvage
 Le jardin Aquatique
-Alpine House (Une serre avec des pierres et des plantes de montagnes)[2]
+Alpine House (Une serre avec des pierres et des plantes de montagnes)
 Woodland (une forêt de 40 000 m2)
 Le Marco Polo Conservatoire
 Il y a souvent des expositions de fleurs ou d'arbres
@@ -589,9 +605,11 @@
           <t>Invités célèbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Pendant toute son histoire, des hommes célèbres ont vécu ou séjourné à Wave Hill[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pendant toute son histoire, des hommes célèbres ont vécu ou séjourné à Wave Hill :
 Thomas Henry Huxley, Charles Darwin, la famille de Theodore Roosevelt (pendant les vacances d'été dans les années 1870), Mark Twain (dans les années 1900) et Arturo Toscanini (dans les années 1942).</t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est raconté que la famille Rockefeller aurait acheté la forêt (Dans l'État du New-Jersey) en face de Wave Hill et en aurait fait cadeau au New Jersey à la seule condition que la forêt reste sauvage et qu'aucune construction ne vienne détruire la vue depuis Wave Hill.
 </t>
